--- a/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
+++ b/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-27T10:33:04+00:00</t>
+    <t>2026-02-27T10:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
+++ b/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-27T10:34:43+00:00</t>
+    <t>2026-02-27T10:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
+++ b/main/ig/StructureDefinition-dmi-bundledelivery.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-27T10:36:26+00:00</t>
+    <t>2026-02-27T10:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
